--- a/experiment/results/010/010_XX_rhythm_results.xlsx
+++ b/experiment/results/010/010_XX_rhythm_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="10215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4819316994454907</v>
+        <v>2.2700270320024134</v>
       </c>
       <c r="B2">
-        <v>1.4820273913501296</v>
+        <v>2.2698831319230521</v>
       </c>
       <c r="C2">
         <v>2.1</v>
       </c>
       <c r="D2">
-        <v>2.0999285253346898</v>
+        <v>2.1001190174483781</v>
       </c>
       <c r="E2">
-        <v>13.999789553927258</v>
+        <v>14.00073976882959</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -447,22 +447,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.8708015801186173</v>
+        <v>1.1618061341372918</v>
       </c>
       <c r="B3">
-        <v>0.87035366491181776</v>
+        <v>1.1609308383513053</v>
       </c>
       <c r="C3">
         <v>2.1</v>
       </c>
       <c r="D3">
-        <v>2.100168805976864</v>
+        <v>2.0999319900292903</v>
       </c>
       <c r="E3">
-        <v>13.999340751994168</v>
+        <v>13.999057163662656</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -473,22 +473,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.8666350540496974</v>
+        <v>0.62426973616028458</v>
       </c>
       <c r="B4">
-        <v>1.8664803021238185</v>
+        <v>0.62425229132622917</v>
       </c>
       <c r="C4">
         <v>2.1</v>
       </c>
       <c r="D4">
-        <v>2.1000549212913029</v>
+        <v>2.099926215598316</v>
       </c>
       <c r="E4">
-        <v>13.999705503811128</v>
+        <v>13.999899268251284</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -499,19 +499,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.53282558879945485</v>
+        <v>0.10075051192123563</v>
       </c>
       <c r="B5">
-        <v>0.5325803255836945</v>
+        <v>0.10072629515707376</v>
       </c>
       <c r="C5">
         <v>3.6</v>
       </c>
       <c r="D5">
-        <v>3.6000215578824282</v>
+        <v>3.6000080200437878</v>
       </c>
       <c r="E5">
-        <v>13.999602526368108</v>
+        <v>13.999995187974491</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -525,22 +525,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3507271035768833</v>
+        <v>1.0156976616590732</v>
       </c>
       <c r="B6">
-        <v>0.35061792872147635</v>
+        <v>1.0155354662374521</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3.6000135378562845</v>
+        <v>2.0000365713985957</v>
       </c>
       <c r="E6">
-        <v>13.999646797048626</v>
+        <v>13.999830616677173</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -551,25 +551,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.1597035925997394</v>
+        <v>0.5856091257018784</v>
       </c>
       <c r="B7">
-        <v>2.1591793629340827</v>
+        <v>0.58536342026036436</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D7">
-        <v>2.0999445654451847</v>
-      </c>
-      <c r="E7">
-        <v>13.999294877314242</v>
+        <v>3.5999993583964169</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -577,19 +574,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.0146684664338625</v>
-      </c>
-      <c r="B8">
-        <v>2.0144444287579972</v>
+        <v>1.7546403205947039</v>
       </c>
       <c r="C8">
         <v>2.1</v>
-      </c>
-      <c r="D8">
-        <v>2.1000019889615942</v>
-      </c>
-      <c r="E8">
-        <v>13.99966636596946</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -603,22 +591,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55015634289842219</v>
-      </c>
-      <c r="B9">
-        <v>0.55010637792292982</v>
+        <v>8.2962649110543851E-2</v>
       </c>
       <c r="C9">
         <v>3.6</v>
       </c>
-      <c r="D9">
-        <v>3.6000096882344224</v>
-      </c>
-      <c r="E9">
-        <v>13.999815538874827</v>
-      </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -629,22 +608,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.431692697802823</v>
-      </c>
-      <c r="B10">
-        <v>1.4325385571864899</v>
+        <v>0.66159619308271422</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
-      </c>
-      <c r="D10">
-        <v>2.0992022296995856</v>
-      </c>
-      <c r="E10">
-        <v>13.999889644124778</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -655,22 +625,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.58704470453141677</v>
-      </c>
-      <c r="B11">
-        <v>0.58696588076418266</v>
+        <v>1.1890517338242901</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
-      </c>
-      <c r="D11">
-        <v>3.6000491468585096</v>
-      </c>
-      <c r="E11">
-        <v>13.999794686737005</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -681,25 +642,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.20774229273302847</v>
-      </c>
-      <c r="B12">
-        <v>0.20778599174809642</v>
+        <v>0.39341044030852851</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
-      </c>
-      <c r="D12">
-        <v>3.599967983958777</v>
-      </c>
-      <c r="E12">
-        <v>13.999897664180025</v>
+        <v>2.1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -707,22 +659,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.60249266055898132</v>
-      </c>
-      <c r="B13">
-        <v>0.6019912819028832</v>
+        <v>0.93855786433184241</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1.9999345563992392</v>
-      </c>
-      <c r="E13">
-        <v>13.99935326326522</v>
+        <v>3.6</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -733,22 +676,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.0831237015904585</v>
-      </c>
-      <c r="B14">
-        <v>1.0830742322723381</v>
+        <v>1.3581113074279147</v>
       </c>
       <c r="C14">
         <v>2.1</v>
       </c>
-      <c r="D14">
-        <v>2.1000282947497908</v>
-      </c>
-      <c r="E14">
-        <v>13.999845694255782</v>
-      </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -759,22 +693,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.46097632042311698</v>
-      </c>
-      <c r="B15">
-        <v>0.460962572688004</v>
+        <v>0.88126936152168023</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>2.0000025664048735</v>
-      </c>
-      <c r="E15">
-        <v>13.999860451149289</v>
-      </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -785,25 +710,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.84430879269538905</v>
-      </c>
-      <c r="B16">
-        <v>0.84401614533271641</v>
+        <v>0.94191893031128293</v>
       </c>
       <c r="C16">
         <v>3.6</v>
       </c>
-      <c r="D16">
-        <v>3.5999772872310132</v>
-      </c>
-      <c r="E16">
-        <v>13.999526175524807</v>
-      </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -811,25 +727,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.44795786600421328</v>
-      </c>
-      <c r="B17">
-        <v>0.44801596822799183</v>
+        <v>0.65591382025714129</v>
       </c>
       <c r="C17">
-        <v>2.1</v>
-      </c>
-      <c r="D17">
-        <v>2.0999817784468178</v>
-      </c>
-      <c r="E17">
-        <v>13.999887719313847</v>
+        <v>3.6</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -837,19 +744,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.22592178097239879</v>
-      </c>
-      <c r="B18">
-        <v>0.22600465547293425</v>
+        <v>0.4519457092603858</v>
       </c>
       <c r="C18">
         <v>3.6</v>
-      </c>
-      <c r="D18">
-        <v>3.6000497884815559</v>
-      </c>
-      <c r="E18">
-        <v>13.999865583988139</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -863,22 +761,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.39262850844007474</v>
-      </c>
-      <c r="B19">
-        <v>0.39356561106978916</v>
+        <v>1.9313040676552387</v>
       </c>
       <c r="C19">
         <v>2.1</v>
       </c>
-      <c r="D19">
-        <v>2.0991499389638193</v>
-      </c>
-      <c r="E19">
-        <v>13.999893814558163</v>
-      </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -889,22 +778,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.22766429781655351</v>
-      </c>
-      <c r="B20">
-        <v>0.22761476048617624</v>
+        <v>1.2250340556909964</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
-      </c>
-      <c r="D20">
-        <v>3.5999689463642426</v>
-      </c>
-      <c r="E20">
-        <v>13.999822275713086</v>
+        <v>2.1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -915,22 +795,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.43569868410389911</v>
-      </c>
-      <c r="B21">
-        <v>0.43542513318243437</v>
+        <v>0.553887065791275</v>
       </c>
       <c r="C21">
         <v>3.6</v>
       </c>
-      <c r="D21">
-        <v>3.6000504300754983</v>
-      </c>
-      <c r="E21">
-        <v>13.999613112857332</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -985,25 +856,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.71553525929594952</v>
-      </c>
-      <c r="B2">
-        <v>0.71549550426425412</v>
+        <v>0.68006553008336068</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
-      </c>
-      <c r="D2">
-        <v>2.1000898887286894</v>
-      </c>
-      <c r="E2">
-        <v>13.99977319300524</v>
+        <v>3.6</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1011,19 +873,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.92337964210324386</v>
-      </c>
-      <c r="B3">
-        <v>0.92174421303207055</v>
+        <v>0.36718990531736739</v>
       </c>
       <c r="C3">
         <v>3.6</v>
-      </c>
-      <c r="D3">
-        <v>3.5999766456370708</v>
-      </c>
-      <c r="E3">
-        <v>13.998195488995407</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1037,19 +890,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.43020739132958397</v>
-      </c>
-      <c r="B4">
-        <v>0.4304424372385256</v>
+        <v>0.23929060619354536</v>
       </c>
       <c r="C4">
         <v>3.6</v>
-      </c>
-      <c r="D4">
-        <v>3.5997289865044877</v>
-      </c>
-      <c r="E4">
-        <v>13.999716411082773</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1063,19 +907,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.18481632012413607</v>
-      </c>
-      <c r="B5">
-        <v>0.18482940393732861</v>
+        <v>0.57892349245909358</v>
       </c>
       <c r="C5">
         <v>3.6</v>
-      </c>
-      <c r="D5">
-        <v>3.599993006529985</v>
-      </c>
-      <c r="E5">
-        <v>13.999858847149881</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1089,22 +924,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.0812262279637532</v>
-      </c>
-      <c r="B6">
-        <v>2.0811917664250359</v>
+        <v>1.9938402257467678</v>
       </c>
       <c r="C6">
         <v>2.1</v>
       </c>
-      <c r="D6">
-        <v>2.1000141794502269</v>
-      </c>
-      <c r="E6">
-        <v>13.999837995012058</v>
-      </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,22 +941,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.97974837835608519</v>
-      </c>
-      <c r="B7">
-        <v>0.97955593312508427</v>
+        <v>0.93558654849501877</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
-      </c>
-      <c r="D7">
-        <v>3.5999240340897813</v>
-      </c>
-      <c r="E7">
-        <v>13.999607017613016</v>
+        <v>2.1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1141,19 +958,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.0094009381900373</v>
-      </c>
-      <c r="B8">
-        <v>1.0079876478412189</v>
+        <v>0.25901482435760753</v>
       </c>
       <c r="C8">
         <v>2.1</v>
-      </c>
-      <c r="D8">
-        <v>2.1000491468585096</v>
-      </c>
-      <c r="E8">
-        <v>13.998438336071558</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1167,22 +975,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.25557421391337715</v>
-      </c>
-      <c r="B9">
-        <v>0.25564675600617193</v>
+        <v>0.44384583672695732</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
-      </c>
-      <c r="D9">
-        <v>2.099917938845465</v>
-      </c>
-      <c r="E9">
-        <v>13.999852751905564</v>
+        <v>3.6</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1193,22 +992,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.59354880059775394</v>
-      </c>
-      <c r="B10">
-        <v>0.5935166566632688</v>
+        <v>0.3001844012139</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
-      </c>
-      <c r="D10">
-        <v>2.1000526756979525</v>
-      </c>
-      <c r="E10">
-        <v>13.999841523822397</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1219,25 +1009,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.40871984611255208</v>
-      </c>
-      <c r="B11">
-        <v>0.40868500713258982</v>
+        <v>0.92318976377333339</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
-      </c>
-      <c r="D11">
-        <v>3.599982420069864</v>
-      </c>
-      <c r="E11">
-        <v>13.999822596524609</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1245,25 +1026,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.3682609702198127</v>
-      </c>
-      <c r="B12">
-        <v>1.3682758306385949</v>
+        <v>1.9167361959422089</v>
       </c>
       <c r="C12">
         <v>2.1</v>
       </c>
-      <c r="D12">
-        <v>2.0999073524144478</v>
-      </c>
-      <c r="E12">
-        <v>13.999821313307621</v>
-      </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1271,22 +1043,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.26221174778084544</v>
-      </c>
-      <c r="B13">
-        <v>0.26216128125088289</v>
+        <v>0.92834592437929619</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
-      </c>
-      <c r="D13">
-        <v>3.599955472687725</v>
-      </c>
-      <c r="E13">
-        <v>13.999820992496097</v>
+        <v>2.1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1297,22 +1060,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.60284308938208298</v>
-      </c>
-      <c r="B14">
-        <v>0.60277339702588506</v>
+        <v>0.39017593813060658</v>
       </c>
       <c r="C14">
         <v>3.6</v>
       </c>
-      <c r="D14">
-        <v>3.5999615679320414</v>
-      </c>
-      <c r="E14">
-        <v>13.999725393514382</v>
-      </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1323,19 +1077,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.71121578043368294</v>
-      </c>
-      <c r="B15">
-        <v>0.7112650889030192</v>
+        <v>0.36044889337894459</v>
       </c>
       <c r="C15">
         <v>3.6</v>
-      </c>
-      <c r="D15">
-        <v>3.5999397533887532</v>
-      </c>
-      <c r="E15">
-        <v>13.999842486227863</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1349,25 +1094,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.2217467340172401</v>
-      </c>
-      <c r="B16">
-        <v>0.22174600954167545</v>
+        <v>0.32258732631972192</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
-      </c>
-      <c r="D16">
-        <v>3.5999496982549317</v>
-      </c>
-      <c r="E16">
-        <v>13.999864942365093</v>
+        <v>2.1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1375,22 +1111,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.27006059696835355</v>
-      </c>
-      <c r="B17">
-        <v>0.27005493410979398</v>
+        <v>0.26013019411244009</v>
       </c>
       <c r="C17">
-        <v>2.1</v>
-      </c>
-      <c r="D17">
-        <v>2.1000366355874576</v>
-      </c>
-      <c r="E17">
-        <v>13.999891248124186</v>
+        <v>3.6</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1401,22 +1128,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.68235450840215184</v>
-      </c>
-      <c r="B18">
-        <v>0.68250743940006942</v>
+        <v>0.17363020173166732</v>
       </c>
       <c r="C18">
-        <v>2.1</v>
-      </c>
-      <c r="D18">
-        <v>2.0998066205647774</v>
-      </c>
-      <c r="E18">
-        <v>13.999821954901563</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1427,22 +1145,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.6375566038517646</v>
-      </c>
-      <c r="B19">
-        <v>0.63719352183397859</v>
+        <v>0.98761387529735212</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2.00007506768452</v>
-      </c>
-      <c r="E19">
-        <v>13.999553764471784</v>
+        <v>2.1</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1453,22 +1162,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.84833351942761448</v>
-      </c>
-      <c r="B20">
-        <v>0.84792383393505588</v>
+        <v>0.59175040497067766</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2.0000542155175935</v>
-      </c>
-      <c r="E20">
-        <v>13.999509493820369</v>
+        <v>2.1</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1479,22 +1179,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.1680740547205717</v>
-      </c>
-      <c r="B21">
-        <v>1.1679863389581442</v>
+        <v>0.59511076830223675</v>
       </c>
       <c r="C21">
-        <v>2.1</v>
-      </c>
-      <c r="D21">
-        <v>2.0999833824753296</v>
-      </c>
-      <c r="E21">
-        <v>13.999810406035976</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>0</v>
